--- a/整合結果/自由時報_財經/excel_by_week/2025_W25.xlsx
+++ b/整合結果/自由時報_財經/excel_by_week/2025_W25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>焦點股》聯發科：股價跌跌不休 外資建議抄底</t>
+          <t>焦點股》訊芯-KY：搭光通訊便車 盤中漲停</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076230</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076448</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>雷諾CEO梅奧辭職 傳將接掌Gucci母企開雲集團</t>
+          <t>IMF前官員警告：川普關稅、稅收法案像場「希臘悲劇」恐重創經濟和股市</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076210</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076198</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>川普政府首例海外礦業投資！美進出口銀行擬向格陵蘭稀土專案提供逾35億元貸款</t>
+          <t>焦點股》英濟：推進集團升級 股價勁揚</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076206</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076391</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>焦點股》熙特爾：掛牌上市 股價狂飆4成</t>
+          <t>點餐免排隊！麥當勞「手機點餐」上線週週祭好康</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076266</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076382</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>川普屢屢放話要拿下格陵蘭 馬克宏：法國願協助強化安全</t>
+          <t>美國對等關稅衝擊 38家業者1189人放無薪假</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076221</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076384</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>阿布達比國家石油公司擬砸5539億 收購澳洲天然氣巨頭Santos</t>
+          <t>焦點股》晟銘電：下半年拼逐季成長 股價走高</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076251</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076380</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>阿布達比國家石油公司擬砸5539億 收購澳洲天然氣巨頭Santos、股價噴逾15％</t>
+          <t>中東戰火延燒 台幣升值6.4分、暫收29.604元</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076251</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076450</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>雷軍：小米YU7將於6月底發售</t>
+          <t>焦點股》勤誠：ASIC產品逐步放量 股價強漲</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076278</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076378</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>研勤目標3年每股淨值升至5元</t>
+          <t>驅逐非法移民擴大！川普點名洛杉磯3城市</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076292</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076353</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>高雄近10年停電數降43％ 台電:強化設備、防獸碰觸並行</t>
+          <t>排隊搶買Labubu爆衝突 泡泡瑪特暫停南韓實體銷售</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076295</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076303</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>中國5月零售額激增6.4％ 創1年半之最</t>
+          <t>焦點股》富喬：LOW DK比重年底倍增 股價重啟攻勢</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076308</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076342</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>財富自由》投資大師選股-價值型選股專家</t>
+          <t>中國5月零售額激增6.4％ 創1年半之最</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076233</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076308</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>焦點股》富喬：LOW DK比重年底倍增 股價重啟攻勢</t>
+          <t>高雄近10年停電數降43％ 台電:強化設備、防獸碰觸並行</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076342</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076295</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>驅逐非法移民擴大！川普點名洛杉磯3城市</t>
+          <t>研勤目標3年每股淨值升至5元</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076353</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076292</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>焦點股》勤誠：ASIC產品逐步放量 股價強漲</t>
+          <t>00706L、00673R淨值跌破7元 7月起展開反分割投票</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076378</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076419</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>焦點股》晟銘電：下半年拼逐季成長 股價走高</t>
+          <t>俄軍空襲基輔 損毀波音辦公大樓</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076380</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076386</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>美國對等關稅衝擊 38家業者1189人放無薪假</t>
+          <t>印度積極開發稀土資源 專家：有望成為中國稀土替代品</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076384</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076267</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>點餐免排隊！麥當勞「手機點餐」上線週週祭好康</t>
+          <t>蘋果躲關稅出招！鴻海印度代工iphone 97％全銷往美國</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076382</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076761</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>焦點股》英濟：推進集團升級 股價勁揚</t>
+          <t>永豐金證：關稅進入協商期空窗 下半年三大利多</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076391</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076744</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>IMF前官員警告：川普關稅、稅收法案像場「希臘悲劇」恐重創經濟和股市</t>
+          <t>創投公會提3項改革建議 蕭美琴：致力於打造創新雨林</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076198</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076726</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>焦點股》訊芯-KY：搭光通訊便車 盤中漲停</t>
+          <t>店租+物流成本扛不住 八方雲集將撤出馬祖</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076448</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076724</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>中東戰火延燒 台幣升值6.4分、暫收29.604元</t>
+          <t>名師解盤》黃文清：6月底前震盪整理 聚焦AI、重電、高股息</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076450</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076636</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>00706L、00673R淨值跌破7元 7月起展開反分割投票</t>
+          <t>賺翻了！川普財產申報：靠加密貨幣賺逾17億元</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076419</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076679</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>排隊搶買Labubu爆衝突 泡泡瑪特暫停南韓實體銷售</t>
+          <t>歐盟網路韌性法2027年上路 資安院建議供應鏈4大準備</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076303</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076706</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>以伊衝突加劇供應中斷擔憂 國際油價一度漲逾5％</t>
+          <t>Q1全國住宅平均屋齡達33.23年 史上最老</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076191</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076704</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>台股開盤》電金傳齊跌 指數跌逾百點失守22000點</t>
+          <t>中貨洗產地被堵死 中國企業被迫逃往埃及</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076229</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076605</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>雙北市老公寓銀行認同高 房貸成數65％起跳</t>
+          <t>韓媒：台積電2奈米已開始接單 三星搶單良率待提升</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076190</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076622</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>〈財經週報-專家筆記〉主權AI 引領基建投資新篇章</t>
+          <t>40年來首次！美國跌出英國製造商前3大增長市場</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711831</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076617</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>〈財經週報-投資觀點〉以權證參與除權息旺季行情</t>
+          <t>鮑爾前顧問：以伊衝突對Fed是「重大變數」估12月才會降息</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711834</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076620</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>〈財經週報-投資觀點〉川普關稅戰略觀察 資產穩中求進</t>
+          <t>黃金「光芒萬丈」時刻到！華爾街一致認為是避險「不二之選」</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711836</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076477</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>〈財經週報-投資觀點〉關稅政策緩衝期 「債券」成穩健投資新解方</t>
+          <t>拒「黑箱協商」跨產業5大工會、逾60基層工會組「因應關稅衝擊行動聯盟」</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711835</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076533</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>〈財經週報-投資趨勢〉關稅重塑亞洲投資趨勢 中日有望憑內需成贏家</t>
+          <t>工研院：CPO技術落地 台灣可望是全球核心基地</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711832</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076485</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>〈財經週報-時事求是〉 房市的調整</t>
+          <t>雷軍：小米YU7將於6月底發售</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711826</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076278</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>〈財經週報-本週油價〉汽油不調整 柴油調漲3角</t>
+          <t>鴻海突破AI伺服器電控限制 新研究在日本熊本發表</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711840</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076760</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>〈財經週報-本週熱點〉超級央行週登場 我利率維持連5凍</t>
+          <t>阿布達比國家石油公司擬砸5539億 收購澳洲天然氣巨頭Santos、股價噴逾15％</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711837</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076251</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>〈財經週報-熱門族群〉落後補漲 光通訊股價聚光</t>
+          <t>川普屢屢放話要拿下格陵蘭 馬克宏：法國願協助強化安全</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711839</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076221</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>〈財經週報-熱門族群〉輝達需求熱呼呼 散熱廠受惠</t>
+          <t>〈財經週報-限貸再起〉業者盼解除第2戶限貸成數</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711838</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711830</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>〈財經週報-限貸再起〉 交屋潮強碰最強限貸令 房貸族求貸無門</t>
+          <t>〈財經週報-限貸再起〉新青安續辦？ 財政部︰明年屆期前評估</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711825</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711829</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>〈財經週報-限貸再起〉新青安續辦？ 財政部︰明年屆期前評估</t>
+          <t>〈財經週報-限貸再起〉 交屋潮強碰最強限貸令 房貸族求貸無門</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711829</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711825</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>〈財經週報-限貸再起〉業者盼解除第2戶限貸成數</t>
+          <t>〈財經週報-熱門族群〉輝達需求熱呼呼 散熱廠受惠</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711830</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711838</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>〈財經週報-限貸再起〉蛇年房市難回溫 接待中心送外賣多過看屋</t>
+          <t>〈財經週報-熱門族群〉落後補漲 光通訊股價聚光</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711828</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711839</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>今年超額儲蓄估首破4兆 創新高</t>
+          <t>〈財經週報-限貸再起〉蛇年房市難回溫 接待中心送外賣多過看屋</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711783</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711828</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>晶片、稀土出口續互掐咽喉 美中達全面協議路障多</t>
+          <t>〈財經週報-本週熱點〉超級央行週登場 我利率維持連5凍</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711784</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711837</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>禁止戰略性高科技貨品輸出 華為、中芯 我納出口管制黑名單</t>
+          <t>〈財經週報-時事求是〉 房市的調整</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711762</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711826</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>等無施工許可 中小型光電商恐陷倒閉潮</t>
+          <t>〈財經週報-投資趨勢〉關稅重塑亞洲投資趨勢 中日有望憑內需成贏家</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711785</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711832</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>追兵將至 風電3-1、3-2融資仍卡關</t>
+          <t>〈財經週報-投資觀點〉關稅政策緩衝期 「債券」成穩健投資新解方</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711786</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711835</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>金融三業對中曝險 降至8769億續創低</t>
+          <t>〈財經週報-投資觀點〉川普關稅戰略觀察 資產穩中求進</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711782</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711836</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>風電供應鏈 籲政府支持降低成本</t>
+          <t>〈財經週報-投資觀點〉以權證參與除權息旺季行情</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711787</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711834</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>亞投行前高層：中共控制亞投行 更像中國國內銀行</t>
+          <t>〈財經週報-專家筆記〉主權AI 引領基建投資新篇章</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076152</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711831</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LTN經濟通》台積電獨門技術 緊掐AI發展命脈</t>
+          <t>〈財經週報-本週油價〉汽油不調整 柴油調漲3角</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074028</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711840</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>死亡前2年內贈與子女現金 這樣申報遺產稅</t>
+          <t>今年超額儲蓄估首破4兆 創新高</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076088</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711783</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>俄軍空襲基輔 損毀波音辦公大樓</t>
+          <t>晶片、稀土出口續互掐咽喉 美中達全面協議路障多</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076386</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711784</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,301 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>印度積極開發稀土資源 專家：有望成為中國稀土替代品</t>
+          <t>禁止戰略性高科技貨品輸出 華為、中芯 我納出口管制黑名單</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076267</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711762</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>焦點股》熙特爾：掛牌上市 股價狂飆4成</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076266</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>川普政府首例海外礦業投資！美進出口銀行擬向格陵蘭稀土專案提供逾35億元貸款</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076206</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>雷諾CEO梅奧辭職 傳將接掌Gucci母企開雲集團</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076210</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>焦點股》聯發科：股價跌跌不休 外資建議抄底</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076230</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>財富自由》投資大師選股-價值型選股專家</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076233</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>以伊衝突加劇供應中斷擔憂 國際油價一度漲逾5％</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076191</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>台股開盤》電金傳齊跌 指數跌逾百點失守22000點</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076229</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>雙北市老公寓銀行認同高 房貸成數65％起跳</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076190</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>死亡前2年內贈與子女現金 這樣申報遺產稅</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076088</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>LTN經濟通》台積電獨門技術 緊掐AI發展命脈</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074028</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>亞投行前高層：中共控制亞投行 更像中國國內銀行</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076152</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>風電供應鏈 籲政府支持降低成本</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711787</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>金融三業對中曝險 降至8769億續創低</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711782</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>追兵將至 風電3-1、3-2融資仍卡關</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711786</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>等無施工許可 中小型光電商恐陷倒閉潮</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711785</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>阿布達比國家石油公司擬砸5539億 收購澳洲天然氣巨頭Santos</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076251</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>台股2萬2保衛戰！投信狂掃8金融 00919這檔敲2.58萬張最猛</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076797</t>
         </is>
       </c>
     </row>

--- a/整合結果/自由時報_財經/excel_by_week/2025_W25.xlsx
+++ b/整合結果/自由時報_財經/excel_by_week/2025_W25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>焦點股》訊芯-KY：搭光通訊便車 盤中漲停</t>
+          <t>工研院：CPO技術落地 台灣可望是全球核心基地</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076448</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076485</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IMF前官員警告：川普關稅、稅收法案像場「希臘悲劇」恐重創經濟和股市</t>
+          <t>拒「黑箱協商」跨產業5大工會、逾60基層工會組「因應關稅衝擊行動聯盟」</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076198</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076533</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>焦點股》英濟：推進集團升級 股價勁揚</t>
+          <t>台股收盤》光通訊、AI、塑膠逆揚 收跌23點22000失而復得</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076391</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076229</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>點餐免排隊！麥當勞「手機點餐」上線週週祭好康</t>
+          <t>黃金「光芒萬丈」時刻到！華爾街一致認為是避險「不二之選」</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076382</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076477</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>美國對等關稅衝擊 38家業者1189人放無薪假</t>
+          <t>鮑爾前顧問：以伊衝突對Fed是「重大變數」估12月才會降息</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076384</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076620</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>焦點股》晟銘電：下半年拼逐季成長 股價走高</t>
+          <t>40年來首次！美國跌出英國製造商前3大增長市場</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076380</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076617</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>中東戰火延燒 台幣升值6.4分、暫收29.604元</t>
+          <t>韓媒：台積電2奈米已開始接單 三星搶單良率待提升</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076450</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076622?utm_campaign=STARK_business_DQN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>焦點股》勤誠：ASIC產品逐步放量 股價強漲</t>
+          <t>中貨洗產地被堵死 中國企業被迫逃往埃及</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076378</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076605?utm_campaign=STARK_Recommender&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>驅逐非法移民擴大！川普點名洛杉磯3城市</t>
+          <t>Q1全國住宅平均屋齡達33.23年 史上最老</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076353</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076704</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>排隊搶買Labubu爆衝突 泡泡瑪特暫停南韓實體銷售</t>
+          <t>歐盟網路韌性法2027年上路 資安院建議供應鏈4大準備</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076303</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076706</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>焦點股》富喬：LOW DK比重年底倍增 股價重啟攻勢</t>
+          <t>賺翻了！川普財產申報：靠加密貨幣賺逾17億元</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076342</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076679</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>中國5月零售額激增6.4％ 創1年半之最</t>
+          <t>名師解盤》黃文清：6月底前震盪整理 聚焦AI、重電、高股息</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076308</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076636</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>高雄近10年停電數降43％ 台電:強化設備、防獸碰觸並行</t>
+          <t>店租+物流成本扛不住 八方雲集將撤出馬祖</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076295</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076724</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>研勤目標3年每股淨值升至5元</t>
+          <t>創投公會提3項改革建議 蕭美琴：致力於打造創新雨林</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076292</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076726</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>焦點股》弘凱：加速拓展海外市場 股價大漲</t>
+          <t>永豐金證：關稅進入協商期空窗 下半年三大利多</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076369</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076744</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>00706L、00673R淨值跌破7元 7月起展開反分割投票</t>
+          <t>蘋果躲關稅出招！鴻海印度代工iphone 97％全銷往美國</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076419</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076761</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>俄軍空襲基輔 損毀波音辦公大樓</t>
+          <t>鴻海印度代工iphone 97％銷往美國</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076386</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076761</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076267</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076267?utm_campaign=STARK_business_DQN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>蘋果躲關稅出招！鴻海印度代工iphone 97％全銷往美國</t>
+          <t>俄軍空襲基輔 損毀波音辦公大樓</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076761</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076386?utm_campaign=STARK_business_DQN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>永豐金證：關稅進入協商期空窗 下半年三大利多</t>
+          <t>00706L、00673R淨值跌破7元 7月起展開反分割投票</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076744</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076419</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>創投公會提3項改革建議 蕭美琴：致力於打造創新雨林</t>
+          <t>中東戰火延燒 台幣升值6.4分、暫收29.604元</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076726</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076450</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>店租+物流成本扛不住 八方雲集將撤出馬祖</t>
+          <t>排隊搶買Labubu爆衝突 泡泡瑪特暫停南韓實體銷售</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076724</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076303</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>名師解盤》黃文清：6月底前震盪整理 聚焦AI、重電、高股息</t>
+          <t>驅逐非法移民擴大！川普點名洛杉磯3城市</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076636</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076353?utm_campaign=STARK_business_DQN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>賺翻了！川普財產申報：靠加密貨幣賺逾17億元</t>
+          <t>驅逐非法移民擴大！川普點名洛杉磯3城市</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076679</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076353</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>歐盟網路韌性法2027年上路 資安院建議供應鏈4大準備</t>
+          <t>焦點股》弘凱：加速拓展海外市場 股價大漲</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076706</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076369</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Q1全國住宅平均屋齡達33.23年 史上最老</t>
+          <t>焦點股》弘凱：加速拓展海外市場 股價大漲</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076704</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076369</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>中貨洗產地被堵死 中國企業被迫逃往埃及</t>
+          <t>焦點股》勤誠：ASIC產品逐步放量 股價強漲</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076605</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076378</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>韓媒：台積電2奈米已開始接單 三星搶單良率待提升</t>
+          <t>焦點股》勤誠：ASIC產品逐步放量 股價強漲</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076622</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076378</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>40年來首次！美國跌出英國製造商前3大增長市場</t>
+          <t>焦點股》晟銘電：下半年拼逐季成長 股價走高</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076617</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076380</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>鮑爾前顧問：以伊衝突對Fed是「重大變數」估12月才會降息</t>
+          <t>鴻海突破AI伺服器電控限制 新研究在日本熊本發表</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076620</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076760</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>黃金「光芒萬丈」時刻到！華爾街一致認為是避險「不二之選」</t>
+          <t>焦點股》晟銘電：下半年拼逐季成長 股價走高</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076477</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076380</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>拒「黑箱協商」跨產業5大工會、逾60基層工會組「因應關稅衝擊行動聯盟」</t>
+          <t>美國對等關稅衝擊 38家業者1189人放無薪假</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076533</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076384</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>工研院：CPO技術落地 台灣可望是全球核心基地</t>
+          <t>點餐免排隊！麥當勞「手機點餐」上線週週祭好康</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076485</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076382</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>雷軍：小米YU7將於6月底發售</t>
+          <t>點餐免排隊！麥當勞「手機點餐」上線週週祭好康</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076278</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076382</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>鴻海突破AI伺服器電控限制 新研究在日本熊本發表</t>
+          <t>焦點股》英濟：推進集團升級 股價勁揚</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076760</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076391</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>阿布達比國家石油公司擬砸5539億 收購澳洲天然氣巨頭Santos、股價噴逾15％</t>
+          <t>焦點股》英濟：推進集團升級 股價勁揚</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076251</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076391</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>川普屢屢放話要拿下格陵蘭 馬克宏：法國願協助強化安全</t>
+          <t>IMF前官員警告：川普關稅、稅收法案像場「希臘悲劇」恐重創經濟和股市</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076221</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076198</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>〈財經週報-限貸再起〉業者盼解除第2戶限貸成數</t>
+          <t>IMF前官員警告：川普關稅、稅收法案像場「希臘悲劇」恐重創經濟和股市</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711830</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076198</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>〈財經週報-限貸再起〉新青安續辦？ 財政部︰明年屆期前評估</t>
+          <t>焦點股》訊芯-KY：搭光通訊便車 盤中漲停</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711829</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076448</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>〈財經週報-限貸再起〉 央行緊盯房市變化 總量管制將實施至第四季</t>
+          <t>美國對等關稅衝擊 38家業者1189人放無薪假</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711827</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076384</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>〈財經週報-限貸再起〉 交屋潮強碰最強限貸令 房貸族求貸無門</t>
+          <t>台股2萬2保衛戰！投信狂掃8金融 00919這檔敲2.58萬張最猛</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711825</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076797</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>〈財經週報-熱門族群〉輝達需求熱呼呼 散熱廠受惠</t>
+          <t>台南市重評房屋稅標準單價 平均調幅為21％</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711838</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076807</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>〈財經週報-熱門族群〉落後補漲 光通訊股價聚光</t>
+          <t>中國 TP-Link遭美調查花半天閃電裁員 無線晶片部門幾乎團滅</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711839</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076740?utm_campaign=STARK_Recommender&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>〈財經週報-限貸再起〉蛇年房市難回溫 接待中心送外賣多過看屋</t>
+          <t>民股控台鹽綠能收購價太離譜 台鹽：已高於淨值2.6倍</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711828</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077036</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>〈財經週報-本週熱點〉超級央行週登場 我利率維持連5凍</t>
+          <t>美股恐下跌20％？ 加拿大皇家銀行發出警訊</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711837</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077011</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>〈財經週報-時事求是〉 房市的調整</t>
+          <t>洗錢集團租蝦皮帳號轉手中國電商牟利 蝦皮回應了</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711826</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077054</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>〈財經週報-投資趨勢〉關稅重塑亞洲投資趨勢 中日有望憑內需成贏家</t>
+          <t>上海麗嬰房股權賣給北京弘毅啟元 初估交易金額人民幣3.7至4.2億</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711832</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077061</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>〈財經週報-投資觀點〉關稅政策緩衝期 「債券」成穩健投資新解方</t>
+          <t>國銀人民幣存款連2升 仍處於12年低檔</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711835</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077074</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>〈財經週報-投資觀點〉川普關稅戰略觀察 資產穩中求進</t>
+          <t>6旬夫妻存款僅300萬卻喊「錢太多」！歸功於退休前關鍵1步</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711836</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076970</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>〈財經週報-投資觀點〉以權證參與除權息旺季行情</t>
+          <t>外商前5月投資台灣1760億元 逾5成為離岸風電</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711834</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077088</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>〈財經週報-專家筆記〉主權AI 引領基建投資新篇章</t>
+          <t>北富銀攜手北市地政局 推「地籍異動即時通」阻詐</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711831</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077099</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>〈財經週報-本週油價〉汽油不調整 柴油調漲3角</t>
+          <t>34歲身價破百億！她成紐西蘭首位華人女首富 親曝創業祕訣</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711840</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077028</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>今年超額儲蓄估首破4兆 創新高</t>
+          <t>下一個大熱門科技產品 Google、Meta、Snap都指它</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711783</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076965</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>晶片、稀土出口續互掐咽喉 美中達全面協議路障多</t>
+          <t>數發部拚AI基礎建設 預告「促進資料創新利用發展條例」</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711784</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077102</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>禁止戰略性高科技貨品輸出 華為、中芯 我納出口管制黑名單</t>
+          <t>中國1/3車企資金緊張比亞迪最嚇人 營運資金赤字逾5100億</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711762</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077021</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>焦點股》熙特爾：掛牌上市 股價狂飆4成</t>
+          <t>我對中國投資續衰退 佔比掉到不到3％</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076266</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077122</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>川普政府首例海外礦業投資！美進出口銀行擬向格陵蘭稀土專案提供逾35億元貸款</t>
+          <t>伊朗關閉金融市場 德黑蘭民眾恐慌排隊領錢逃出城</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076206</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077117</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>雷諾CEO梅奧辭職 傳將接掌Gucci母企開雲集團</t>
+          <t>地方抱怨租金補貼要自籌 國土署：本來就屬地方自治</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076210</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077147</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>焦點股》聯發科：股價跌跌不休 外資建議抄底</t>
+          <t>鮮為人知的中國股票騙局 坑殺成千上萬美國小股民</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076230</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077133</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>財富自由》投資大師選股-價值型選股專家</t>
+          <t>外籍人士「居住成本最低國家」 今年前5名全部更新去年排行榜</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076233</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077162</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>以伊衝突加劇供應中斷擔憂 國際油價一度漲逾5％</t>
+          <t>連32摃！威力彩頭獎摃龜 下期獎金上看14億</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076191</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077163</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>台股開盤》電金傳齊跌 指數跌逾百點失守22000點</t>
+          <t>台積電入列！外媒點名「2檔科技股」5年內股價有望翻倍</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076229</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077068</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>雙北市老公寓銀行認同高 房貸成數65％起跳</t>
+          <t>排隊搶買Labubu爆衝突 泡泡瑪特暫停南韓實體銷售</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076190</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076303</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>死亡前2年內贈與子女現金 這樣申報遺產稅</t>
+          <t>申請新青安被勸退？公股銀發聲明澄清力挺政府政策</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076088</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076993</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LTN經濟通》台積電獨門技術 緊掐AI發展命脈</t>
+          <t>美元午後反轉下殺！新台幣勁揚1.48角創逾3年新高</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074028</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076938?utm_campaign=STARK_Recommender&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>亞投行前高層：中共控制亞投行 更像中國國內銀行</t>
+          <t>大黑松小倆口拚轉型 總經理邱義榮重新掌舵</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076152</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076830</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>風電供應鏈 籲政府支持降低成本</t>
+          <t>豐興鋼鐵本週盤價持平 觀察國際原料走勢</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711787</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076817</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>金融三業對中曝險 降至8769億續創低</t>
+          <t>00919延長賽！第9大持股遭投信砍近2萬張最慘 2棄嬰尚有4800張等清倉</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711782</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076857</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>追兵將至 風電3-1、3-2融資仍卡關</t>
+          <t>台鹽綠能14位民股認收購價離譜 委律師告台綠高層圖利、特別背信</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711786</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076815</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>等無施工許可 中小型光電商恐陷倒閉潮</t>
+          <t>國泰台大團隊估今年GDP 2.8％ 景氣若衰退央行可能降息</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711785</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076845</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>阿布達比國家石油公司擬砸5539億 收購澳洲天然氣巨頭Santos</t>
+          <t>黑松食品董事改選 張斌堂續任董事長</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076251</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076866</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,3905 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>台股2萬2保衛戰！投信狂掃8金融 00919這檔敲2.58萬張最猛</t>
+          <t>外資連2賣狂買6金融！這檔敲1.33萬張最搶手</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5076797</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076873</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>億萬富豪正拋售輝達 改押「這檔」AI新寵</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076859</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>央行6/19理監事會議利率按兵不動？路透全說了</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076806</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>苗栗老屋健檢受理申請10/31截止 每棟最高補助40萬</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076864</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>台股陷2萬2保衛戰！外資前10大賣超出爐 43萬存股族淪最大苦主</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076893</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>智慧資安攜手AuthenTrend 拓展無密碼驗證市場</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076884</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>手持對等關稅尚方寶劍 美國要求越南與中國科技脫鉤</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076858</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>日勝生進軍台中捷運土地開發案 投資興建27樓建物3年後完工</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076897</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>投信估台股此波回升到8、9月 再接續「年底行情」</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076916</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>用ATM要刷臉！新光保全助永豐銀導入AI臉部辨識門禁</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076917</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>傳蘋果搶台積2奈米頭香 A20晶片採WMCM封裝享優勢</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076900</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>立委控郭智輝公器私用 經部重申：皆由郭自費</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076941</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>國產署12宗地上權招標 AIT舊址底價近20億</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076869</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>焦點股》富喬：LOW DK比重年底倍增 股價重啟攻勢</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076342</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>金價逼近3500美元 台銀：Fed利率決策與中東局勢成多空關鍵</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076975</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>中國5月零售額激增6.4％ 創1年半之最</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076308</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>〈財經週報-投資觀點〉以權證參與除權息旺季行情</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711834</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>〈財經週報-投資觀點〉川普關稅戰略觀察 資產穩中求進</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711836</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>〈財經週報-投資觀點〉關稅政策緩衝期 「債券」成穩健投資新解方</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711835</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>〈財經週報-投資趨勢〉關稅重塑亞洲投資趨勢 中日有望憑內需成贏家</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711832</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>〈財經週報-時事求是〉 房市的調整</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711826</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>〈財經週報-本週油價〉汽油不調整 柴油調漲3角</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711840</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>〈財經週報-本週熱點〉超級央行週登場 我利率維持連5凍</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711837</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>〈財經週報-熱門族群〉落後補漲 光通訊股價聚光</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711839</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>〈財經週報-熱門族群〉輝達需求熱呼呼 散熱廠受惠</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711838</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>〈財經週報-限貸再起〉 交屋潮強碰最強限貸令 房貸族求貸無門</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711825</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>〈財經週報-限貸再起〉 央行緊盯房市變化 總量管制將實施至第四季</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711827</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>〈財經週報-限貸再起〉新青安續辦？ 財政部︰明年屆期前評估</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711829</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>〈財經週報-限貸再起〉業者盼解除第2戶限貸成數</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711830</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>今年超額儲蓄估首破4兆 創新高</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711783</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>晶片、稀土出口續互掐咽喉 美中達全面協議路障多</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711784</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>禁止戰略性高科技貨品輸出 華為、中芯 我納出口管制黑名單</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711762</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>等無施工許可 中小型光電商恐陷倒閉潮</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711785?utm_campaign=STARK_business_DQN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>〈財經週報-專家筆記〉主權AI 引領基建投資新篇章</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711831</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>〈財經週報-台股盤勢解析〉成長前景支撐 AI仍是台股主流</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711833</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>等無施工許可 中小型光電商恐陷倒閉潮</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711785</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>禁止戰略性高科技貨品輸出 華為、中芯 我納出口管制黑名單</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711762</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>焦點股》富喬：LOW DK比重年底倍增 股價重啟攻勢</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076342</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>〈財經週報-專家筆記〉主權AI 引領基建投資新篇章</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711831</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>〈財經週報-投資觀點〉以權證參與除權息旺季行情</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711834</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>〈財經週報-投資觀點〉川普關稅戰略觀察 資產穩中求進</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711836</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>〈財經週報-投資觀點〉關稅政策緩衝期 「債券」成穩健投資新解方</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711835</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>〈財經週報-投資趨勢〉關稅重塑亞洲投資趨勢 中日有望憑內需成贏家</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711832</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>〈財經週報-時事求是〉 房市的調整</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711826</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>〈財經週報-本週油價〉汽油不調整 柴油調漲3角</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711840</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>追兵將至 風電3-1、3-2融資仍卡關</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711786</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>〈財經週報-本週熱點〉超級央行週登場 我利率維持連5凍</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711837</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>〈財經週報-熱門族群〉輝達需求熱呼呼 散熱廠受惠</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711838</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>〈財經週報-限貸再起〉 交屋潮強碰最強限貸令 房貸族求貸無門</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711825</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>〈財經週報-限貸再起〉 央行緊盯房市變化 總量管制將實施至第四季</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711827</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>〈財經週報-限貸再起〉新青安續辦？ 財政部︰明年屆期前評估</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711829</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>〈財經週報-限貸再起〉業者盼解除第2戶限貸成數</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711830</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>〈財經週報-限貸再起〉蛇年房市難回溫 接待中心送外賣多過看屋</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711828</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>今年超額儲蓄估首破4兆 創新高</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711783</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>晶片、稀土出口續互掐咽喉 美中達全面協議路障多</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711784</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>〈財經週報-熱門族群〉落後補漲 光通訊股價聚光</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711839</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>金融三業對中曝險 降至8769億續創低</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711782</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>〈財經週報-限貸再起〉蛇年房市難回溫 接待中心送外賣多過看屋</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711828</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>追兵將至 風電3-1、3-2融資仍卡關</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711786</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>焦點股》聯發科：股價跌跌不休 外資建議抄底</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076230</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>雷諾CEO梅奧辭職 傳將接掌Gucci母企開雲集團</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076210</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>雷諾CEO梅奧辭職 傳將接掌Gucci母企開雲集團</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076210</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>川普政府首例海外礦業投資！美進出口銀行擬向格陵蘭稀土專案提供逾35億元貸款</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076206</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>風電供應鏈 籲政府支持降低成本</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711787</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>焦點股》熙特爾：掛牌上市 股價狂飆4成</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076266</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>焦點股》熙特爾：掛牌上市 股價狂飆4成</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076266</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>川普屢屢放話要拿下格陵蘭 馬克宏：法國願協助強化安全</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076221</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>川普屢屢放話要拿下格陵蘭 馬克宏：法國願協助強化安全</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076221</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>阿布達比國家石油公司擬砸5539億 收購澳洲天然氣巨頭Santos</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076251</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>阿布達比國家石油公司擬砸5539億 收購澳洲天然氣巨頭Santos</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076251</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>阿布達比國家石油公司擬砸5539億 收購澳洲天然氣巨頭Santos、股價噴逾15％</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076251</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>雷軍：小米YU7將於6月底發售</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076278</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>雷軍：小米YU7將於6月底發售</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076278</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>研勤目標3年每股淨值升至5元</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076292</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>研勤目標3年每股淨值升至5元</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076292</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>高雄近10年停電數降43％ 台電:強化設備、防獸碰觸並行</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076295</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>高雄近10年停電數降43％ 台電:強化設備、防獸碰觸並行</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076295</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>中國5月零售額激增6.4％ 創1年半之最</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076308</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>焦點股》聯發科：股價跌跌不休 外資建議抄底</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076230</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>財富自由》投資大師選股-價值型選股專家</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076233</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>川普政府首例海外礦業投資！美進出口銀行擬向格陵蘭稀土專案提供逾35億元貸款</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076206</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>亞投行前高層：中共控制亞投行 更像中國國內銀行</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076152</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>風電供應鏈 籲政府支持降低成本</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711787</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>亞投行前高層：中共控制亞投行 更像中國國內銀行</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076152</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>財富自由》投資大師選股-價值型選股專家</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076233</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>華為5奈米晶片商業化遇瓶頸 土法煉鋼良率低</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076093</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>中國輝達顯卡山寨貨滿天飛 ！送修4張有3張是假貨</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076098</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>金融三業對中曝險 降至8769億續創低</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711782</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>LTN經濟通》台積電獨門秘技 緊掐AI發展命脈</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074028?utm_campaign=STARK_business_DQN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>歐洲大車廠急尋中國以外稀土供應 避免七月停產</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076006</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>LTN經濟通》台積電獨門技術 緊掐AI發展命脈</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074028</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>NHK：比亞迪削價競爭捲起風暴 中國汽車業精疲力竭</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075755</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>死亡前2年內贈與子女現金 這樣申報遺產稅</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076088</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>死亡前2年內贈與子女現金 這樣申報遺產稅</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076088?utm_campaign=STARK_business_DQN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>雙北市老公寓銀行認同高 房貸成數65％起跳</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076190</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>雙北市老公寓銀行認同高 房貸成數65％起跳</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076190</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>台股開盤》電金傳齊跌 指數跌逾百點失守22000點</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076229</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>以伊衝突加劇供應中斷擔憂 國際油價一度漲逾5％</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076191</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>以伊衝突加劇供應中斷擔憂 國際油價一度漲逾5％</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076191</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-06-16</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>美國務院密件 旅行禁令將擴大新增埃及等36國</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075901</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>土洋攜手合作 AIA友邦壽首度與彰銀銷售保單</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078046</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>0050明日恢復交易 參考淨值每股47.32元</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078055</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>大成董事長韓家宇：海內外好幾個成長動力</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078064</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>漢翔巴黎航展告捷 與川崎重工簽訂發動機零組件3年長約</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078066</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>又一檔熱門ETF成分股刪除聯發科 00713各新增、刪除15檔</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078126</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>川普金卡簽證夯？ 商務部長曝申請數據 有CEO稱要買1百張</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078191</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>閎康AI高階專案訂單在握 熱到明年</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078373</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>東鋼在手訂單逾百萬噸 經濟前景、匯率因素衝擊大於對等關稅</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078182</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>重押奇鋐、緯穎！對沖大佬揭出清輝達5風險</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077382</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>板信銀通過股票股利0.56元及0.02元現金股利</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078217</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>貿易裂痕加深！歐盟拒絕與中國經濟對話</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078121</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>偽造10萬份「點名」紀錄 日本郵政社長被減薪4成</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078338</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>華紙拓2大新領域商機 漿塑食器逐步貢獻營收</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078045</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>欣興：納入匯率因素 下半年營收年增8-10％</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078174</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>外資對43萬存股族大開殺戒！這檔金融連砍17刀 倒貨逾107萬張</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078042?utm_campaign=STARK_business_DQN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>中東緊張若推升油價 外銀點名「3大脆弱」亞幣 台幣在內</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078123</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>外資反手買超狂敲「6金3電」！這檔金融9天掃逾12萬最搶手</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078010</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>黃金飆2個月高點後 遭摜殺轉大跌</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077298</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>不確定因子籠罩 富坦月收益基金領先反彈</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077323</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>這位CEO用人不看大學學歷 只看「3件事」</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077271</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>快下車！小摩警告2隻黑天鵝蠢蠢欲動 金價恐跌至此價位</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077375</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>受美國關稅議題衝擊 房市氛圍偏向「晚點再買」</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077585</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>台北市262電動公車火燒車 華德動能：日製電池無事故紀錄</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077788</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>群益投顧：台股下半年指數區間21000-25000點 Q4有望挑戰新高</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078037</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>澄清負面消息 國票金今發重訊、23日提前開法說會</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077807</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>遠通電收推「ETC企業客戶全台路邊停車費代繳」</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077878</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ChargeSPOT借電使用量成長5倍 持續佈局北北桃熱點</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077901</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>投信買超81億最愛金融、航運！這檔一出手就敲2.74萬張 爆量噴出</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077939</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>投信狂砍00713「7老將」！44萬存股族淪大苦主 爆砍逾2萬張</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077976</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>名師解盤》容逸燊：聚焦台幣升值對股市影響</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077982</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>廣達強化智醫生態系 攜手軍醫切入電子傷票領域</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5077804</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>川普關稅苦主再加1！孩之寶宣布砍3％人力以削減成本</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078824</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>藍委廖偉翔稱中火用煤量暴增1.47倍 台電打臉「錯誤對比帶風向」</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078836</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>「凱基松山哥」套在台揚？資產恐縮水50％</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078880</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>高雄港規劃建置15處光電系統 估2028年起可年產約1.2萬仟度電</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078933</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>買氣未見起色 5月全國個人房地合一稅年減2成</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078935</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>正崴佈局新成長曲線 軍工、AI多箭齊發</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078825</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>奧特曼：Meta開出1億美元天價簽約金挖角OpenAI員工</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078890</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>與「這費用」有關 ? 馬克庫班曝 : 川普手機背後真正的「賺錢點子」</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078567</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>關稅衝擊經濟支柱汽車業 日本近8個月出口首度下降</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078685</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>精成科股東會》董座焦佑衡：併購效應顯現 拉高AI產品比重</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078833</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>CBO：川普稅收法案將使赤字增加2.8兆美元</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078565</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>金價狂飆 黃金現貨交易平台成交金額爆增582％</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078845?utm_campaign=STARK_business_DQN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>彈性育嬰留停以日申請細節難產？ 勞長：正向政院爭取支援</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078798</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>以伊衝突升級 石油巨頭們發出警告</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078755</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>燁輝未分派股利 今年挑戰匯率衝擊大於關稅</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078776</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>櫃買永續債發行達882.05億元 全年拼新高</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078965</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>大樹光電案高市府第7度開罰並移送地檢 要求終止開發</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078740</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>中企頻違約 阿富汗神學士怒喊卡25年油田開採協議</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078716</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>美債需求現裂痕！全球央行罕見撤出 大賣近500億美元美債</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078561</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>罐裝無糖飲料、彩色電視免貨物稅 立院初審通過</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078737</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>中東風險未解、市場靜待Fed決策！ 新台幣暫收平盤29.535元</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078861</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>美股牛市全看美債臉色！彭博曝只有發行「這類債」多頭才能「續命」</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078754</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Threads成詐騙新溫床 數發部：2星期內完成納管程序</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5079051</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>深耕高雄 陽明完成高雄港第70號貨櫃碼頭20年續租合約</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078979</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>中央擴大租金補貼地方將自籌10％至40％ 竹市：恐對市政運作形成挑戰</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5079233</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>報稅了嗎？所得稅申報剩12天 國稅局這些時段加班收件</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5079241</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>華為中芯被列入黑名單 彭博：台灣舉措罕見 標誌長期目標</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5079134</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>承租高雄港70號碼頭 陽明海運子公司簽20年長約</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5079208</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>EDF整合品牌 持續在台開發2大重點專案</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5079206</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>投信狂賣00713「8棄嬰」！這檔最慘 2天倒貨3.28萬張</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5079225</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>星宇航空奪SKYTRAX五星認證！ 開航五年就衝進國際殿堂</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5079190</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>00713「5新寵」強勢登場！投信狂掃這檔金融逾4萬張最搶手</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5079182</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>特斯拉租用美國各地停車場放庫存車 外媒揭這「2車款」最多</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5079062</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>川普批日本態度強硬 石破茂：絕不犧牲國家利益來快速達成協議</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5079008</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>台股收盤》電金權值扮要角 指數收漲145點</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078604</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>預售屋買氣變化就像跳樓機 全國4月1天只賣111.3戶</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5079133</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>西門子捐1.6億AI軟體給清大 培育AI工程人才</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5079112</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>黃金超越美債、瑞士法郎成終極避風港！專家一語道破關鍵真相</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078545</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>網揪出2架貨運航班從中國飛往伊朗？航空公司全說了</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078990</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>世界上有多少黃金？答案揭曉</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078580</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>日本股東賣股 吳東昇可望續任新光三越董事長</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078930</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>尼加拉瓜斷交台灣一場空？專家爆北京「畫大餅」但很少投資內幕</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078631</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>跌破眼鏡 ! 全美最受歡迎薯條排名 麥當勞倒數第2、僅贏過「這家」</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078702</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>中國洗產地手法曝光？星媒爆「1數據」藏疑點 業界揭內幕</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5079010</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>台幣強升 銀行推出「日圓美元」換匯回饋</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5079019</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>育嬰留職停薪津貼增至７個月 勞動部年底前提修法</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078982</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Switch 2銷售火爆 推動任天堂股價創新高</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5079081</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>馬斯克xAI每月驚人燒錢數字曝光！彭博：擬籌資2746億元</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078570</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>jpp-KY： AI伺服器與航太 營運成長雙主軸</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078675</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>伊朗石油出口若被切斷 中國將成「最大苦主」! 最差情況曝光</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078564</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>川普要伊朗無條件投降！道瓊挫近300點、台積電ADR走跌</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078512</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>中東局勢烏雲密布 美股收盤盡墨</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078511</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>中東局勢加深石油供給疑慮 國際油價收盤大漲逾4%</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078510</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>高階ABF供不應求 欣興：計畫合作蓋廠</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1712115</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>電動機車3項加碼 汰舊換新最高補助8千</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1712081</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>財經青紅燈》黑天鵝滿天飛</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1712116</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>詐騙廣告、內容審查爭議不斷 Meta美高層七月來台拜會</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1712079</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>華新科啟動交棒計畫／大成第三代進董事會</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1712113</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>自由日日shoot》數發部︰已向中華電索取違約金</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1712072</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>自由日日shoot》憑證風暴 中華電董座道歉、祭懲處</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1712070</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>自由日日shoot》台科大查士朝︰就怕產生骨牌效應</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1712071</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>盤勢分析》量能需加溫 挑戰年線反壓</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1712117</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>熱門股》軟體股利多 華經帶量勁揚</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1712118</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>小屋頂光電補助 尚餘6.8億預算可申請</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1712080</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>央行再度出手！ 台幣又創高後收貶</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1712073</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>中拖延解決爭端 歐盟拒峰會前對話</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1712074</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>中央財源被砍 國土署籲地方共扛租補</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1712078</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>中國檢測技術偏中低階 閎康：台廠包辦美系高階訂單</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1712114</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>中國大畢生搶頭路 付費實習洗經歷</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1712075</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2025年IMD世界競爭力 台灣排第6 逾2000萬人經濟體 我5連霸</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1712057</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>外資換吃00713「3新兵」豆腐！一口氣砍5.42萬張</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5079275</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>LTN經濟通》全球最幸福國家 林昶佐出使樂壇騷動</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5076709</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>中華電信簡志誠：強化網路韌性 台灣首個主權衛星年底發射</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078360</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>日產汽車背水一戰 企業命運全押注這款電動車</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078409</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>英特爾代工部門將裁員 人數恐高達1萬人</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078405</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>上緯攜手清大輕量化輪框 挑戰歐洲學生方程式大賽</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078656</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>通膨、房市多頭 17年來雙北市公寓平均單價幾近翻倍漲</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078653</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>關稅暫緩期倒數計時 川普親曝這兩地貿易談判進度</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078559</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>馬斯克公佈藥物檢測結果 嘲笑白宮吸毒謠言</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078658</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>接軌全球全固態電池市場！台塑新智能「全固態鋰電池試量產線」啟用</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078697</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>焦點股》南亞科：DDR4價格狂飆傳「封盤」股價挑戰漲停</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078687</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>AI有20％機率「毀滅人類」！AI教父辛頓對AI發展愈趨不安</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078548</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>台灣半導體有多「強」？外媒長文曝領先全球重要性</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078613</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>美國長債「穩賺神話」恐破滅 ! 新債王警告：美國快崩潰</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078562</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>焦點股》智伸科：打入AI供應鏈 股價強漲</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078635</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>劉世芳：地方自籌租金補貼合法合規 負擔比例未定案要多討論</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078713</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>焦點股》新日興：吃下iPhone摺疊機大單 帶量強攻季線</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078630</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1年前去Costco買了條黃金 報酬讓人大吃一驚！</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078547</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>中國限制出口銻價格狂飆 電池製造商困境難解</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078557</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>API：美國原油庫存上週減少逾1013萬桶 創近2年來最大降幅</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078592</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>財富自由》投資大師選股-收益型選股專家</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078595</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>關稅之爭首次進入最高法院！美2家玩具商狀告川普越權</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078549</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>黃金大跌後先喘口氣 但「這貴金屬」狂飆創13年新高</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078569</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>油市為以伊戰火買單！國際油價再跳漲 專家警告：非一次性衝突</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078578</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>第3次延長！川普拍板TikTok截至日再延90天</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078546</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>基層民眾「無日可過」！中國陷入經濟崩解</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078314</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>「川普手機」恐由中國設計製造？處理器應是聯發科</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078386</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>焦點股》0050：分割後重新掛牌 爆量向上</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5078629</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>路易莎多品牌拓展餐食市場 營收拚雙位數成長</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5079265</t>
         </is>
       </c>
     </row>
